--- a/my-app/static/downloads-excel/Reportes_DGSP_2024_09_10.xlsx
+++ b/my-app/static/downloads-excel/Reportes_DGSP_2024_09_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,40 +466,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dorcas</t>
+          <t xml:space="preserve">JOEL </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>li</t>
+          <t>MOSQUEDA PUENTES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Valle1</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14555</t>
+          <t>14106</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dr.l@gto.gob</t>
+          <t>jmosquedap@guanajuato.gob.mx</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>skmkkdknskdnkndkkdnkdkndkansdknk</t>
+          <t xml:space="preserve">Falla en telefono dormitorio #4, se comenta que falta una pieza aproximadamente un mes, se han enviado varios correos explicando la problemática, </t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10 de Sep 2024 10:58 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOEL </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MOSQUEDA PUENTES</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14106</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>jmosquedap@guanajuato.gob</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BodyScan: Se llevaron el generador para revision por que estaba dañado, comenta el proveedor que ya esta inservible,  se presto la pieza Disipador de voltaje, falta que lleven las piezas de parte del proveedor</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10 de Sep 2024 10:00 AM</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 de Sep 2024 10:56 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JOEL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MOSQUEDA PUENTES</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14106</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jmosquedap@guanajuato.gob.mx</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maquina de rayos X esta descompuesta, esta desconfigurada y tiene archivos corruptos, comenta que el proveedor fue dos veces anteriormente para hacer la corrección, pero después de eso ya no fue el proveedor debido a que contrataban a otra empresa externa, comenta que el UPS también esta descompuesto, tiene un relay, Principal Empresa BOBIC y provetecnia. GRABACIONES DE VOZ: Se venian haciendo, están en cambio los números de control del RNIP</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10 de Sep 2024 10:45 AM</t>
         </is>
       </c>
     </row>

--- a/my-app/static/downloads-excel/Reportes_DGSP_2024_09_10.xlsx
+++ b/my-app/static/downloads-excel/Reportes_DGSP_2024_09_10.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Extension</t>
+          <t>Proveedor</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
